--- a/data/describe/Forward_bigfive.xlsx
+++ b/data/describe/Forward_bigfive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\wordalisations\data\gpt_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501610F-9FAA-423E-AD30-F0E0648DEF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71CA5F6-B6C3-4922-8EA2-0D5A9DDD517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35145" yWindow="2430" windowWidth="26745" windowHeight="14505" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
     <t>The candidate is very outgoing and energetic. The candidate tends to be more social. In particular they said that they start conversations. The candidate is quite sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. The candidate is quite friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very efficient and organized. The candidate tends to be more careful or diligent. In particular they said that they pay attention to details. The candidate is relatively consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
 The candidate presents as highly efficient and organized, noting they are always prepared. Their assured nature suggests that collaborative efforts will be polite and welcoming.
 They describe themselves as unsociable and cautious, demonstrating little interest in new ideas or change.
 In summary, the person will be efficient and organized in their work, the cooperation will be polite.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Assistant</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,44 +459,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="165.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
